--- a/biology/Zoologie/Inachidae/Inachidae.xlsx
+++ b/biology/Zoologie/Inachidae/Inachidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Inachidae sont une famille de crabes du groupe des Majoidea. Elle comprend plus de 200 espèces actuelles et une dizaine de fossiles dans 39 genres.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des crabes dits « crabes-araignées », du fait que leurs pattes sont généralement beaucoup plus longues que le corps. Comme pour toutes les familles du groupe des Majoidea, le céphalothorax est plus long que large, parfois terminé par un rostre. 
-Dans cette famille en particulier, les yeux sont dépourvus d'orbites, mais situés au bout d'un pédoncule parfois long, et rarement rétractile. Les antennes sont généralement courtes et fines[2].  
+Dans cette famille en particulier, les yeux sont dépourvus d'orbites, mais situés au bout d'un pédoncule parfois long, et rarement rétractile. Les antennes sont généralement courtes et fines.  
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 octobre 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 octobre 2015) :
 genre Achaeopsis Stimpson, 1857
 genre Achaeus Leach, 1815
 genre Anisonotus A. Milne-Edwards, 1879
@@ -624,7 +640,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Macleay, 1838 : On the brachyurous decapod Crustacea brought from the Cape by Dr. Smith. Illustrations of the Annulosa of South Africa; being a portion of the objects of natural history chiefly collected during an expedition into the interior of South Africa, under the direction of Dr. Andrew Smith, in the years 1834, 1835. and 1836; fitted out by “The Cape of Good Hope Association for Exploring Central Africa”. p. 53–71.</t>
         </is>
@@ -654,7 +672,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17, p. 1–286.
 De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
